--- a/scrap_IPC/files/ponderaciones_nacion.xlsx
+++ b/scrap_IPC/files/ponderaciones_nacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\scrapingTrabajo\scrap_IPC\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9687BC5E-11A7-4C81-84E5-ADCBC66FAE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873BF1E6-076D-4D77-A46E-52858330A450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
